--- a/Testers Virtual Visitas (Responses).xlsx
+++ b/Testers Virtual Visitas (Responses).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alber\OneDrive - Georgia Institute of Technology\GitHub\VirtualVisitas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/azhang344_gatech_edu/Documents/GitHub/VirtualVisitas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A59794-3C23-43B4-B843-F6F89FE9904D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{E7A59794-3C23-43B4-B843-F6F89FE9904D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2F1E968C-6053-4466-AEFF-35F28A59A527}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -270,12 +270,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -291,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -301,6 +307,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -525,7 +534,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -571,7 +580,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>43896.790636574071</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -594,7 +603,7 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>43896.791250000002</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -617,7 +626,7 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>43896.797939814816</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -640,7 +649,7 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>43896.80159722222</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -663,7 +672,7 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>43896.80201388889</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -755,7 +764,7 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>43897.005486111113</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -778,7 +787,7 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>43897.375833333332</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -848,7 +857,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>43901.967557870368</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -918,7 +927,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>43901.968287037038</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -953,7 +962,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>43901.969513888886</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -988,7 +997,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>43901.983182870368</v>
       </c>
       <c r="B17" s="3" t="s">

--- a/Testers Virtual Visitas (Responses).xlsx
+++ b/Testers Virtual Visitas (Responses).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/azhang344_gatech_edu/Documents/GitHub/VirtualVisitas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkzr3\VirtualVisitas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{E7A59794-3C23-43B4-B843-F6F89FE9904D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2F1E968C-6053-4466-AEFF-35F28A59A527}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="8196"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -28,9 +27,6 @@
     <t>Email Address</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>From</t>
   </si>
   <si>
@@ -245,12 +241,15 @@
   </si>
   <si>
     <t>Rock, Metal</t>
+  </si>
+  <si>
+    <t>Full Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -526,7 +525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -534,17 +533,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="22" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="3" max="22" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,49 +551,49 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>43896.790636574071</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -602,22 +601,22 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>43896.791250000002</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -625,22 +624,22 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>43896.797939814816</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -648,22 +647,22 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>43896.80159722222</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -671,22 +670,22 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>43896.80201388889</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -694,22 +693,22 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>43896.810069444444</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -717,22 +716,22 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>43896.821539351855</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -740,22 +739,22 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>43896.830578703702</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -763,22 +762,22 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>43897.005486111113</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -786,254 +785,254 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>43897.375833333332</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>43901.967476851853</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>43901.967557870368</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K13" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>43901.968171296299</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>43901.968287037038</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="K15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>43901.969513888886</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>43901.983182870368</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="K17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B17" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>

--- a/Testers Virtual Visitas (Responses).xlsx
+++ b/Testers Virtual Visitas (Responses).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="186">
   <si>
     <t>Timestamp</t>
   </si>
@@ -51,84 +51,18 @@
     <t>Not_hobbies</t>
   </si>
   <si>
-    <t>tarynoconnor10@gmail.com</t>
-  </si>
-  <si>
-    <t>Taryn O'Connor</t>
-  </si>
-  <si>
-    <t>charlie.neuhauser20@gmail.com</t>
-  </si>
-  <si>
-    <t>Charlie Neuhauser</t>
-  </si>
-  <si>
-    <t>Mwen987@gmail.com</t>
-  </si>
-  <si>
-    <t>Melissa Meng</t>
-  </si>
-  <si>
     <t>jgracebaldwin@gmail.com</t>
   </si>
   <si>
-    <t>Jackelyn Baldwin</t>
-  </si>
-  <si>
     <t>initforthenguyen@gmail.com</t>
   </si>
   <si>
     <t>Ryan Doan Nguyen</t>
   </si>
   <si>
-    <t>robert@wachenmail.com</t>
-  </si>
-  <si>
-    <t>Robert Wachen</t>
-  </si>
-  <si>
-    <t>tarunas220@gmail.com</t>
-  </si>
-  <si>
-    <t>Taruna Singh</t>
-  </si>
-  <si>
-    <t>ailie@eliran.com</t>
-  </si>
-  <si>
-    <t>Ailie Johnson</t>
-  </si>
-  <si>
-    <t>Paula Zhu</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>Pop, Rock, No Preference</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>I'm not interested in sports</t>
   </si>
   <si>
-    <t>Music, Art, Writing, Reading, Other, Debate, graphic design, films</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Neuroscience</t>
-  </si>
-  <si>
-    <t>paulakaitlynzoo@gmail.com</t>
-  </si>
-  <si>
     <t>Biomedical Engineering</t>
   </si>
   <si>
@@ -144,15 +78,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Pop, R&amp;B, Classical, Rock</t>
-  </si>
-  <si>
-    <t>Tennis, Dancing</t>
-  </si>
-  <si>
-    <t>Music, Theater, Cooking/Baking, Dance, Art, Hiking, Yoga, Reading</t>
-  </si>
-  <si>
     <t>noah2list@gmail.com</t>
   </si>
   <si>
@@ -168,12 +93,6 @@
     <t>Football, Baseball/Softball, Basketball</t>
   </si>
   <si>
-    <t>Coding, Other</t>
-  </si>
-  <si>
-    <t>mendez_james@hotmail.com</t>
-  </si>
-  <si>
     <t>James Mendez</t>
   </si>
   <si>
@@ -186,71 +105,485 @@
     <t>Music, Reading</t>
   </si>
   <si>
-    <t>apneal0725@gmail.com</t>
-  </si>
-  <si>
-    <t>Adam Neal</t>
-  </si>
-  <si>
     <t>Massachusetts</t>
   </si>
   <si>
-    <t>Pop, Rap, Country</t>
-  </si>
-  <si>
-    <t>Football, Baseball/Softball, Basketball, Golf</t>
-  </si>
-  <si>
-    <t>Chess, Coding, Reading</t>
-  </si>
-  <si>
-    <t>chloesharlinwilson@gmail.com</t>
-  </si>
-  <si>
-    <t>Chloe Wilson</t>
-  </si>
-  <si>
-    <t>Pop, R&amp;B, Classical, No Preference</t>
-  </si>
-  <si>
-    <t>Football, Tennis, Cross Country</t>
-  </si>
-  <si>
-    <t>Cooking/Baking, Hiking, Writing, Shopping, Other</t>
-  </si>
-  <si>
-    <t>Laeticia Allache</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Pop, Rap, R&amp;B, Classical, Rock, Country, Jazz, No Preference</t>
-  </si>
-  <si>
-    <t>Soccer, Hockey, Cross Country, Track and Field</t>
-  </si>
-  <si>
-    <t>Music, Dance, Art, Yoga, Reading, Shopping, Other</t>
-  </si>
-  <si>
-    <t>allachelaeticia@gmail.com</t>
-  </si>
-  <si>
-    <t>Kpop</t>
-  </si>
-  <si>
-    <t>Rock, Metal</t>
-  </si>
-  <si>
     <t>Full Name</t>
+  </si>
+  <si>
+    <t>hdavis@gmail.com</t>
+  </si>
+  <si>
+    <t>Hannah Davis</t>
+  </si>
+  <si>
+    <t>Pop, Indie, Other</t>
+  </si>
+  <si>
+    <t>Soccer, Tennis</t>
+  </si>
+  <si>
+    <t>Hiking, Writing or Journalism, Reading, Volunteering, Other</t>
+  </si>
+  <si>
+    <t>Funk</t>
+  </si>
+  <si>
+    <t>Economics, Government</t>
+  </si>
+  <si>
+    <t>Cards</t>
+  </si>
+  <si>
+    <t>traylorkari@gmail.com</t>
+  </si>
+  <si>
+    <t>Kari Traylor</t>
+  </si>
+  <si>
+    <t>Indie</t>
+  </si>
+  <si>
+    <t>Tennis, Marching Band</t>
+  </si>
+  <si>
+    <t>Music, Cooking/Baking, Reading, Volunteering</t>
+  </si>
+  <si>
+    <t>Environmental Science and Public Policy</t>
+  </si>
+  <si>
+    <t>tyingtheribbon@gmail.com</t>
+  </si>
+  <si>
+    <t>Hals Stark</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Pop, Rap, R&amp;B, Rock</t>
+  </si>
+  <si>
+    <t>Theater, Cooking/Baking, Writing or Journalism, Debate, Volunteering</t>
+  </si>
+  <si>
+    <t>fna.millan@gmail.com</t>
+  </si>
+  <si>
+    <t>Fiona Millan</t>
+  </si>
+  <si>
+    <t>Pop, Rap, R&amp;B, Classical, Rock, Alternative</t>
+  </si>
+  <si>
+    <t>Dancing, Volleyball, Cross Country</t>
+  </si>
+  <si>
+    <t>Hiking, Coding, Yoga, Reading, Research, Volunteering</t>
+  </si>
+  <si>
+    <t>Astrophysics</t>
+  </si>
+  <si>
+    <t>andreagpfp36@gmail.com</t>
+  </si>
+  <si>
+    <t>Andrea Fernandez</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Pop, Rap</t>
+  </si>
+  <si>
+    <t>Dance, Art, Writing or Journalism, Reading, Volunteering</t>
+  </si>
+  <si>
+    <t>Badminton</t>
+  </si>
+  <si>
+    <t>Undecided</t>
+  </si>
+  <si>
+    <t>matilda.gs.marcus@gmail.com</t>
+  </si>
+  <si>
+    <t>matilda marcus</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>Pop, Rap, R&amp;B, Alternative, Indie</t>
+  </si>
+  <si>
+    <t>Theater, Other</t>
+  </si>
+  <si>
+    <t>Women, Gender, and Sexuality, Studies of, Undecided</t>
+  </si>
+  <si>
+    <t>politics and youth activism</t>
+  </si>
+  <si>
+    <t>gunnhildurfrida@gmail.com</t>
+  </si>
+  <si>
+    <t>Gunnhildur Fríða Hallgrímsdóttir</t>
+  </si>
+  <si>
+    <t>Pop, Classical, Rock, Jazz</t>
+  </si>
+  <si>
+    <t>Music, Hiking, Writing or Journalism, Debate, Volunteering, Other</t>
+  </si>
+  <si>
+    <t>Economics, Environmental Science and Public Policy</t>
+  </si>
+  <si>
+    <t>Environmental Activism and Politics / Lobbying</t>
+  </si>
+  <si>
+    <t>sophie.merendoni.lucas@gmail.com</t>
+  </si>
+  <si>
+    <t>Sophie Lucas</t>
+  </si>
+  <si>
+    <t>Pop, Rap, Classical, Indie</t>
+  </si>
+  <si>
+    <t>Swimming &amp; Diving, Boxing, I'm not interested in sports</t>
+  </si>
+  <si>
+    <t>Music, Yoga, Writing or Journalism, Reading, Shopping, Debate, Volunteering</t>
+  </si>
+  <si>
+    <t>Classics, Undecided</t>
+  </si>
+  <si>
+    <t>billzhang1998@gmail.com</t>
+  </si>
+  <si>
+    <t>Bill Zhang</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Pop, Kpop, Alternative</t>
+  </si>
+  <si>
+    <t>Football, Tennis, Ultimate Frisbee</t>
+  </si>
+  <si>
+    <t>Chess, Hiking, Research</t>
+  </si>
+  <si>
+    <t>Applied Mathematics</t>
+  </si>
+  <si>
+    <t>Pop</t>
+  </si>
+  <si>
+    <t>Tennis, Dancing, Ultimate Frisbee</t>
+  </si>
+  <si>
+    <t>Music, Theater, Chess, Cooking/Baking, Dance, Yoga, Volunteering</t>
+  </si>
+  <si>
+    <t>alexpglynn@gmail.com</t>
+  </si>
+  <si>
+    <t>Alexander Glynn</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>Rap, Classical, Rock, Metal</t>
+  </si>
+  <si>
+    <t>Soccer</t>
+  </si>
+  <si>
+    <t>Music, Hiking, Debate, Robotics</t>
+  </si>
+  <si>
+    <t>Applied Mathematics, Computer Science, Mechanical Engineering, Physics</t>
+  </si>
+  <si>
+    <t>yusuf.lest@gmail.com</t>
+  </si>
+  <si>
+    <t>Yusuf Yildirim</t>
+  </si>
+  <si>
+    <t>Rock, Jazz, Metal, Alternative</t>
+  </si>
+  <si>
+    <t>Volleyball, Cross Country</t>
+  </si>
+  <si>
+    <t>Music, Art, Hiking, Reading, Debate, Volunteering</t>
+  </si>
+  <si>
+    <t>Environmental Science and Public Policy, Molecular and Cellular Biology</t>
+  </si>
+  <si>
+    <t>Coding, Research</t>
+  </si>
+  <si>
+    <t>mendezjamesc@gmail.com</t>
+  </si>
+  <si>
+    <t>Music, Debate, Gaming</t>
+  </si>
+  <si>
+    <t>Biomedical Engineering, Neuroscience</t>
+  </si>
+  <si>
+    <t>abbymiller0123@gmail.com</t>
+  </si>
+  <si>
+    <t>Abby Miller</t>
+  </si>
+  <si>
+    <t>Tennis</t>
+  </si>
+  <si>
+    <t>Hiking, Shopping, Debate</t>
+  </si>
+  <si>
+    <t>Computer Science, Economics</t>
+  </si>
+  <si>
+    <t>flzimmerman@gmail.com</t>
+  </si>
+  <si>
+    <t>Fiona Zimmerman</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Rap, Rock, Alternative</t>
+  </si>
+  <si>
+    <t>Boxing</t>
+  </si>
+  <si>
+    <t>Music, Cooking/Baking, Art, Hiking, Writing or Journalism, Volunteering</t>
+  </si>
+  <si>
+    <t>throwbacks!</t>
+  </si>
+  <si>
+    <t>none. just gym</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>hailey.m.olcott@gmail.com</t>
+  </si>
+  <si>
+    <t>Hailey Olcott</t>
+  </si>
+  <si>
+    <t>No Preference</t>
+  </si>
+  <si>
+    <t>Theater, Cooking/Baking, Dance, Art, Reading, Debate, Volunteering</t>
+  </si>
+  <si>
+    <t>Water Polo</t>
+  </si>
+  <si>
+    <t>Government, History and Science, Social Studies</t>
+  </si>
+  <si>
+    <t>boluwajiodufuwa@gmail.com</t>
+  </si>
+  <si>
+    <t>Boluwaji (Beejay) Odufuwa</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Rap, R&amp;B, No Preference</t>
+  </si>
+  <si>
+    <t>Football, Basketball, Track and Field</t>
+  </si>
+  <si>
+    <t>Cooking/Baking, Coding, Reading, Shopping, Research, Volunteering</t>
+  </si>
+  <si>
+    <t>Chemical and Physical Biology, Computer Science</t>
+  </si>
+  <si>
+    <t>Pop, Rap, R&amp;B, Classical, EDM, Country, Jazz, Kpop, Alternative, Indie</t>
+  </si>
+  <si>
+    <t>Dancing, Cycling, Cross Country, Martial Arts, Other</t>
+  </si>
+  <si>
+    <t>Chess, Cooking/Baking, Dance, Hiking, Writing or Journalism, Reading, Volunteering, Martial Arts, Other</t>
+  </si>
+  <si>
+    <t>Lion Dancing</t>
+  </si>
+  <si>
+    <t>Anthropology, English, Government, Linguistics, Near Eastern Languages and Civilizations, Psychology, Romance Languages and Literatures</t>
+  </si>
+  <si>
+    <t>Learning Languages</t>
+  </si>
+  <si>
+    <t>natikebedehw@gmail.com</t>
+  </si>
+  <si>
+    <t>Nathenael Hundie</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Rap, R&amp;B</t>
+  </si>
+  <si>
+    <t>Soccer, Tennis, Ultimate Frisbee</t>
+  </si>
+  <si>
+    <t>Music, Cooking/Baking, Reading, Research, Volunteering</t>
+  </si>
+  <si>
+    <t>mm.healy01@gmail.com</t>
+  </si>
+  <si>
+    <t>Millie-Mae Healy</t>
+  </si>
+  <si>
+    <t>Pop, Other</t>
+  </si>
+  <si>
+    <t>Dancing, Track and Field, Cheer!</t>
+  </si>
+  <si>
+    <t>Writing or Journalism, Reading, Debate</t>
+  </si>
+  <si>
+    <t>Musicals!</t>
+  </si>
+  <si>
+    <t>English, Physics</t>
+  </si>
+  <si>
+    <t>pipercy11@gmail.com</t>
+  </si>
+  <si>
+    <t>Piper Cyterski</t>
+  </si>
+  <si>
+    <t>Pop, Rap, Rock, Country, Jazz, Alternative</t>
+  </si>
+  <si>
+    <t>Soccer, Volleyball</t>
+  </si>
+  <si>
+    <t>Cooking/Baking, Reading, Shopping, Research, Volunteering</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Movies</t>
+  </si>
+  <si>
+    <t>chelsea.baker310@gmail.com</t>
+  </si>
+  <si>
+    <t>Chelsea Baker</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Pop, Rap, R&amp;B, Jazz</t>
+  </si>
+  <si>
+    <t>Soccer, Track and Field</t>
+  </si>
+  <si>
+    <t>Applied Mathematics, Government, Neuroscience</t>
+  </si>
+  <si>
+    <t>monahjavidan@gmail.com</t>
+  </si>
+  <si>
+    <t>Monah Javidan</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Pop, Rap, Other</t>
+  </si>
+  <si>
+    <t>Cooking/Baking, Art, Hiking, Shopping</t>
+  </si>
+  <si>
+    <t>Latin pop</t>
+  </si>
+  <si>
+    <t>Crew/Rowing</t>
+  </si>
+  <si>
+    <t>Biomedical Engineering, Chemical and Physical Biology, Chemistry, Molecular and Cellular Biology, Neuroscience</t>
+  </si>
+  <si>
+    <t>marykpankowski@gmail.com</t>
+  </si>
+  <si>
+    <t>Mary Pankowski</t>
+  </si>
+  <si>
+    <t>Pop, Rock, Other</t>
+  </si>
+  <si>
+    <t>Baseball/Softball, Dancing, Volleyball</t>
+  </si>
+  <si>
+    <t>Dance, Art, Research</t>
+  </si>
+  <si>
+    <t>70s 80s 90s</t>
+  </si>
+  <si>
+    <t>jimmyp2002@gmail.com</t>
+  </si>
+  <si>
+    <t>James Patton</t>
+  </si>
+  <si>
+    <t>Pop, R&amp;B, Classical, EDM, Rock, Country, Jazz</t>
+  </si>
+  <si>
+    <t>Music, Hiking, Fishing, Reading, Debate, Volunteering</t>
+  </si>
+  <si>
+    <t>Rowing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -262,25 +595,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -292,11 +613,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -304,15 +624,11 @@
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -529,11 +845,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -551,490 +867,819 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4">
-        <v>43896.790636574071</v>
+      <c r="A2" s="2">
+        <v>43905.025034722225</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4">
-        <v>43896.791250000002</v>
+      <c r="A3" s="2">
+        <v>43905.047233796293</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="J3" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4">
-        <v>43896.797939814816</v>
+      <c r="A4" s="2">
+        <v>43905.057662037034</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
-        <v>43896.80159722222</v>
+      <c r="A5" s="2">
+        <v>43905.080358796295</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
-        <v>43896.80201388889</v>
+      <c r="A6" s="2">
+        <v>43905.386747685188</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <v>43896.810069444444</v>
+        <v>43905.42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
-        <v>43896.821539351855</v>
+        <v>43905.424583333333</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
-        <v>43896.830578703702</v>
+        <v>43905.427430555559</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4">
-        <v>43897.005486111113</v>
+      <c r="A10" s="2">
+        <v>43905.42827546296</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="4">
-        <v>43897.375833333332</v>
+      <c r="A11" s="2">
+        <v>43905.447962962964</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <v>43901.967476851853</v>
+        <v>43905.448460648149</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="4">
-        <v>43901.967557870368</v>
+      <c r="A13" s="2">
+        <v>43905.452499999999</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
-        <v>43901.968171296299</v>
+        <v>43905.457407407404</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="4">
-        <v>43901.968287037038</v>
+      <c r="A15" s="2">
+        <v>43905.462118055555</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="4">
-        <v>43901.969513888886</v>
+      <c r="A16" s="2">
+        <v>43905.476736111108</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>43905.525601851848</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>43905.54146990741</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>43905.547893518517</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>43905.54828703704</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>43905.555925925924</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <v>43905.556898148148</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>43905.561331018522</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>43905.611006944448</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <v>43905.623113425929</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>43905.641006944446</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="4">
-        <v>43901.983182870368</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>43905.678206018521</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testers Virtual Visitas (Responses).xlsx
+++ b/Testers Virtual Visitas (Responses).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
   <si>
     <t>Timestamp</t>
   </si>
@@ -111,9 +111,6 @@
     <t>What other sport(s) are you interested in?</t>
   </si>
   <si>
-    <t>What do you want (or are considering) to major/concentrate in?</t>
-  </si>
-  <si>
     <t>What other interest/hobby do you have?</t>
   </si>
   <si>
@@ -289,6 +286,12 @@
   </si>
   <si>
     <t>Neuroscience, Psychology</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Participating</t>
   </si>
 </sst>
 </file>
@@ -559,9 +562,9 @@
   </sheetPr>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -600,19 +603,21 @@
         <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
@@ -632,7 +637,9 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -646,10 +653,10 @@
         <v>43896.810069444444</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -657,7 +664,9 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -671,27 +680,27 @@
         <v>43897.375833333332</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -715,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -756,7 +765,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -764,7 +773,7 @@
         <v>13</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -778,7 +787,7 @@
         <v>43901.968171296299</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -793,7 +802,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -813,22 +822,22 @@
         <v>43901.968287037038</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -848,32 +857,32 @@
         <v>43901.969513888886</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -887,22 +896,22 @@
         <v>43901.983182870368</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -910,7 +919,7 @@
         <v>7</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -924,22 +933,22 @@
         <v>43903.798796296294</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -959,27 +968,27 @@
         <v>43904.992546296293</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -991,29 +1000,29 @@
         <v>43903.814849537041</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1025,22 +1034,22 @@
         <v>43903.78</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>

--- a/Testers Virtual Visitas (Responses).xlsx
+++ b/Testers Virtual Visitas (Responses).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>Timestamp</t>
   </si>
@@ -39,9 +39,6 @@
     <t>I'm not interested in sports</t>
   </si>
   <si>
-    <t>Biomedical Engineering</t>
-  </si>
-  <si>
     <t>Government</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>Illinois</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>noah2list@gmail.com</t>
   </si>
   <si>
@@ -90,12 +84,6 @@
     <t>Florida</t>
   </si>
   <si>
-    <t>Economics</t>
-  </si>
-  <si>
-    <t>Where are you from?</t>
-  </si>
-  <si>
     <t>What genres of music do you like?</t>
   </si>
   <si>
@@ -291,7 +279,22 @@
     <t>Major</t>
   </si>
   <si>
+    <t>Economics, Computer Science</t>
+  </si>
+  <si>
+    <t>Biomedical Engineering, Biology</t>
+  </si>
+  <si>
+    <t>Computer Science, History, Biology, Economics, Government, Biomedical Engineering</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
     <t>Participating</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -562,9 +565,9 @@
   </sheetPr>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -582,38 +585,38 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>90</v>
@@ -638,13 +641,15 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
@@ -653,10 +658,10 @@
         <v>43896.810069444444</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -665,13 +670,15 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="O3" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
@@ -680,33 +687,35 @@
         <v>43897.375833333332</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="O4" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
@@ -718,30 +727,32 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
@@ -750,35 +761,37 @@
         <v>43901.967557870368</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
@@ -787,33 +800,35 @@
         <v>43901.968171296299</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
@@ -822,33 +837,35 @@
         <v>43901.968287037038</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
@@ -857,37 +874,39 @@
         <v>43901.969513888886</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
@@ -896,35 +915,37 @@
         <v>43901.983182870368</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
@@ -933,33 +954,35 @@
         <v>43903.798796296294</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
@@ -968,98 +991,107 @@
         <v>43904.992546296293</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
+      <c r="O12" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>43903.814849537041</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>43903.78</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
+      <c r="O14" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>

--- a/Testers Virtual Visitas (Responses).xlsx
+++ b/Testers Virtual Visitas (Responses).xlsx
@@ -567,7 +567,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
